--- a/DatabaseDesign.xlsx
+++ b/DatabaseDesign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Paridhan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BespokeClothing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="156">
   <si>
     <t>Field</t>
   </si>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3462,17 +3462,27 @@
       <c r="A222" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+      <c r="B222" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+      <c r="B223" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
     </row>
